--- a/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
+++ b/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV23"/>
+  <dimension ref="A1:AZ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,6 +679,26 @@
           <t>NJ</t>
         </is>
       </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -731,7 +752,6 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -740,17 +760,6 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -787,23 +796,16 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -857,7 +859,6 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -866,17 +867,6 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -913,23 +903,16 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -983,7 +966,6 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -992,17 +974,6 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1039,23 +1010,16 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1109,7 +1073,6 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1118,17 +1081,6 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1165,27 +1117,21 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1239,7 +1185,6 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1248,17 +1193,6 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1295,23 +1229,16 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1365,7 +1292,6 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1374,17 +1300,6 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
@@ -1421,23 +1336,16 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1491,7 +1399,6 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1500,17 +1407,6 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
@@ -1547,23 +1443,16 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1617,7 +1506,6 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1626,17 +1514,6 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
@@ -1673,23 +1550,16 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1743,7 +1613,6 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1752,17 +1621,6 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
@@ -1799,7 +1657,6 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1815,15 +1672,11 @@
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1877,7 +1730,6 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1886,17 +1738,6 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
@@ -1933,7 +1774,6 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1944,16 +1784,11 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2007,7 +1842,6 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2016,17 +1850,6 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -2063,7 +1886,6 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2074,16 +1896,11 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2137,7 +1954,6 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2146,17 +1962,6 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
@@ -2193,7 +1998,7 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" s="2" t="n">
+      <c r="AN13" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2206,16 +2011,11 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2269,7 +2069,6 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2278,17 +2077,6 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
@@ -2325,7 +2113,7 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" s="2" t="n">
+      <c r="AN14" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2338,16 +2126,11 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2437,7 +2220,7 @@
           <t>7/30/2022</t>
         </is>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>44600</v>
       </c>
       <c r="W15" t="inlineStr">
@@ -2460,7 +2243,6 @@
           <t>JM-MAS Construction &amp; Gen. MDSE.</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
@@ -2497,7 +2279,6 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="n">
         <v>10.23</v>
       </c>
@@ -2511,15 +2292,11 @@
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2609,7 +2386,7 @@
           <t>7/30/2023</t>
         </is>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>44600</v>
       </c>
       <c r="W16" t="inlineStr">
@@ -2632,7 +2409,6 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
@@ -2669,7 +2445,6 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="n">
         <v>10.23</v>
       </c>
@@ -2683,15 +2458,11 @@
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2761,7 +2532,6 @@
           <t>November 5,2025</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>No.027,s.2023</t>
@@ -2843,7 +2613,6 @@
       <c r="AM17" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="n">
         <v>7.24</v>
       </c>
@@ -2852,16 +2621,11 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2946,10 +2710,10 @@
           <t>GAB-2023-02</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>45051</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>45265</v>
       </c>
       <c r="W18" t="inlineStr">
@@ -2972,7 +2736,6 @@
           <t>SCA JR BUILDERS</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
@@ -3009,7 +2772,6 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="n">
         <v>7.24</v>
       </c>
@@ -3018,16 +2780,11 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3144,7 +2901,6 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
@@ -3181,7 +2937,6 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="n">
         <v>1.25</v>
       </c>
@@ -3190,8 +2945,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="n">
         <v>3</v>
       </c>
@@ -3200,8 +2953,6 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3273,7 +3024,6 @@
           <t>February 3, 2025</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-006</t>
@@ -3314,7 +3064,6 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
@@ -3351,15 +3100,11 @@
       <c r="AM20" t="n">
         <v>0.08000000000000007</v>
       </c>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="n">
         <v>3</v>
       </c>
@@ -3368,8 +3113,6 @@
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3441,7 +3184,6 @@
           <t>August 5,2025</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>GAB-2024-02</t>
@@ -3457,7 +3199,7 @@
           <t>MAY 29. 2024</t>
         </is>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45571</v>
       </c>
       <c r="W21" t="inlineStr">
@@ -3480,7 +3222,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
@@ -3517,15 +3258,11 @@
       <c r="AM21" t="n">
         <v>0.04999999999999999</v>
       </c>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
         <v>8</v>
       </c>
@@ -3534,8 +3271,6 @@
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AU21" t="inlineStr"/>
-      <c r="AV21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3607,7 +3342,6 @@
           <t>August 5,2025</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>GAB-2024-01</t>
@@ -3623,7 +3357,7 @@
           <t>MAY 29. 2024</t>
         </is>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>45571</v>
       </c>
       <c r="W22" t="inlineStr">
@@ -3646,7 +3380,6 @@
           <t>JRF ANGOYNA GENERAL CONSTRUCTION/REKO KONSTRUCT-JV</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
@@ -3683,15 +3416,11 @@
       <c r="AM22" t="n">
         <v>0.1499999999999999</v>
       </c>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
         <v>8</v>
       </c>
@@ -3700,8 +3429,6 @@
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3757,7 +3484,6 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -3766,16 +3492,6 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr">
         <is>
           <t>Ongoing Preparation of Plans, POW and CMP</t>
@@ -3817,14 +3533,11 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
         <v>1</v>
       </c>
@@ -3836,8 +3549,88 @@
           <t>not yet started</t>
         </is>
       </c>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="AW2:AW23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AX2:AX23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AY2:AY23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AZ2:AZ23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
+++ b/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT23"/>
+  <dimension ref="A1:AU23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +669,11 @@
           <t>Unnamed: 45</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -721,7 +727,6 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -730,17 +735,6 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
@@ -777,16 +771,11 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -845,7 +834,6 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -854,17 +842,6 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
         <v>0</v>
       </c>
@@ -901,16 +878,11 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -969,7 +941,6 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -978,17 +949,6 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
@@ -1025,16 +985,11 @@
       <c r="AM4" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1093,7 +1048,6 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1102,17 +1056,6 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
@@ -1149,20 +1092,16 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1221,7 +1160,6 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1230,17 +1168,6 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
@@ -1277,16 +1204,11 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
-      <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1345,7 +1267,6 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1354,17 +1275,6 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
@@ -1401,16 +1311,11 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
-      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1469,7 +1374,6 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1478,17 +1382,6 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
@@ -1525,16 +1418,11 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1593,7 +1481,6 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1602,17 +1489,6 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
@@ -1649,16 +1525,11 @@
       <c r="AM9" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -1717,7 +1588,6 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1726,17 +1596,6 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
@@ -1773,7 +1632,6 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1789,8 +1647,6 @@
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1849,7 +1705,6 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1858,17 +1713,6 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
@@ -1905,7 +1749,6 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -1916,9 +1759,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1977,7 +1817,6 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1986,17 +1825,6 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -2033,7 +1861,6 @@
       <c r="AM12" t="n">
         <v>0</v>
       </c>
-      <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr">
         <is>
           <t>previous yrs</t>
@@ -2044,9 +1871,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2105,7 +1929,6 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2114,17 +1937,6 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
         <v>0</v>
       </c>
@@ -2161,7 +1973,7 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
-      <c r="AN13" s="2" t="n">
+      <c r="AN13" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2174,9 +1986,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2235,7 +2044,6 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2244,17 +2052,6 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
         <v>0</v>
       </c>
@@ -2291,7 +2088,7 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
-      <c r="AN14" s="2" t="n">
+      <c r="AN14" s="3" t="n">
         <v>44896</v>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2304,9 +2101,6 @@
           <t>Regional Office</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2401,7 +2195,7 @@
           <t>7/30/2022</t>
         </is>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>44600</v>
       </c>
       <c r="W15" t="inlineStr">
@@ -2424,7 +2218,6 @@
           <t>JM-MAS Construction &amp; Gen. MDSE.</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
@@ -2461,7 +2254,6 @@
       <c r="AM15" t="n">
         <v>0</v>
       </c>
-      <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="n">
         <v>10.23</v>
       </c>
@@ -2475,8 +2267,6 @@
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2571,7 +2361,7 @@
           <t>7/30/2023</t>
         </is>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>44600</v>
       </c>
       <c r="W16" t="inlineStr">
@@ -2594,7 +2384,6 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
@@ -2631,7 +2420,6 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
-      <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="n">
         <v>10.23</v>
       </c>
@@ -2645,8 +2433,6 @@
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -2721,7 +2507,6 @@
           <t>November 5,2025</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>No.027,s.2023</t>
@@ -2803,7 +2588,6 @@
       <c r="AM17" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="n">
         <v>7.24</v>
       </c>
@@ -2812,9 +2596,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -2904,10 +2685,10 @@
           <t>GAB-2023-02</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>45051</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>45265</v>
       </c>
       <c r="W18" t="inlineStr">
@@ -2930,7 +2711,6 @@
           <t>SCA JR BUILDERS</t>
         </is>
       </c>
-      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
@@ -2967,7 +2747,6 @@
       <c r="AM18" t="n">
         <v>0</v>
       </c>
-      <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="n">
         <v>7.24</v>
       </c>
@@ -2976,9 +2755,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3100,7 +2876,6 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
@@ -3137,7 +2912,6 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
-      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="n">
         <v>1.25</v>
       </c>
@@ -3146,8 +2920,6 @@
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="n">
         <v>3</v>
       </c>
@@ -3227,7 +2999,6 @@
           <t>February 3, 2025</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-006</t>
@@ -3268,7 +3039,6 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
@@ -3305,15 +3075,11 @@
       <c r="AM20" t="n">
         <v>0.08000000000000007</v>
       </c>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="n">
         <v>3</v>
       </c>
@@ -3393,7 +3159,6 @@
           <t>August 5,2025</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>GAB-2024-02</t>
@@ -3409,7 +3174,7 @@
           <t>MAY 29. 2024</t>
         </is>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45571</v>
       </c>
       <c r="W21" t="inlineStr">
@@ -3432,7 +3197,6 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
@@ -3469,15 +3233,11 @@
       <c r="AM21" t="n">
         <v>0.04999999999999999</v>
       </c>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
         <v>8</v>
       </c>
@@ -3557,7 +3317,6 @@
           <t>August 5,2025</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>GAB-2024-01</t>
@@ -3573,7 +3332,7 @@
           <t>MAY 29. 2024</t>
         </is>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>45571</v>
       </c>
       <c r="W22" t="inlineStr">
@@ -3596,7 +3355,6 @@
           <t>JRF ANGOYNA GENERAL CONSTRUCTION/REKO KONSTRUCT-JV</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
@@ -3633,15 +3391,11 @@
       <c r="AM22" t="n">
         <v>0.1499999999999999</v>
       </c>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
         <v>8</v>
       </c>
@@ -3705,7 +3459,6 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
@@ -3714,16 +3467,6 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr">
         <is>
           <t>Ongoing Preparation of Plans, POW and CMP</t>
@@ -3765,14 +3508,11 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>Division Office</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
         <v>1</v>
       </c>
@@ -3782,6 +3522,79 @@
       <c r="AT23" t="inlineStr">
         <is>
           <t>not yet started</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AU2:AU23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
+++ b/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
@@ -735,41 +735,8 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
       <c r="AL2" t="n">
         <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
@@ -842,41 +809,8 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
       <c r="AL3" t="n">
         <v>1</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
@@ -949,41 +883,8 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
       <c r="AL4" t="n">
         <v>1</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
@@ -1056,41 +957,8 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
       <c r="AL5" t="n">
         <v>1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
@@ -1168,41 +1036,8 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
       <c r="AL6" t="n">
         <v>1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
@@ -1275,41 +1110,8 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1</v>
-      </c>
       <c r="AL7" t="n">
         <v>1</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
@@ -1382,41 +1184,8 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1</v>
-      </c>
       <c r="AL8" t="n">
         <v>1</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1489,41 +1258,8 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
       <c r="AL9" t="n">
         <v>1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
@@ -1596,41 +1332,8 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1</v>
-      </c>
       <c r="AL10" t="n">
         <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
@@ -1713,41 +1416,8 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
       <c r="AL11" t="n">
         <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
@@ -1825,41 +1495,8 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
       <c r="AL12" t="n">
         <v>1</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
@@ -1937,41 +1574,8 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
-      </c>
       <c r="AL13" t="n">
         <v>1</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
       </c>
       <c r="AN13" s="3" t="n">
         <v>44896</v>
@@ -2052,41 +1656,8 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1</v>
-      </c>
       <c r="AL14" t="n">
         <v>1</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
       </c>
       <c r="AN14" s="3" t="n">
         <v>44896</v>
@@ -2218,41 +1789,8 @@
           <t>JM-MAS Construction &amp; Gen. MDSE.</t>
         </is>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
-      </c>
       <c r="AL15" t="n">
         <v>1</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
       </c>
       <c r="AO15" t="n">
         <v>10.23</v>
@@ -2384,41 +1922,8 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
       <c r="AL16" t="n">
         <v>1</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
       </c>
       <c r="AO16" t="n">
         <v>10.23</v>
@@ -2552,42 +2057,9 @@
           <t>Project suspended as to LGU's order while the submission and approval of Conservation Management Plan and Building Permit</t>
         </is>
       </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
       <c r="AL17" t="n">
         <v>0.35</v>
       </c>
-      <c r="AM17" t="n">
-        <v>0.05000000000000004</v>
-      </c>
       <c r="AO17" t="n">
         <v>7.24</v>
       </c>
@@ -2711,41 +2183,8 @@
           <t>SCA JR BUILDERS</t>
         </is>
       </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1</v>
-      </c>
       <c r="AL18" t="n">
         <v>1</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
       </c>
       <c r="AO18" t="n">
         <v>7.24</v>
@@ -2876,41 +2315,8 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1</v>
-      </c>
       <c r="AL19" t="n">
         <v>1</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
       </c>
       <c r="AO19" t="n">
         <v>1.25</v>
@@ -3039,42 +2445,9 @@
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
       <c r="AL20" t="n">
         <v>0.82</v>
       </c>
-      <c r="AM20" t="n">
-        <v>0.08000000000000007</v>
-      </c>
       <c r="AP20" t="inlineStr">
         <is>
           <t>Division Office</t>
@@ -3197,42 +2570,9 @@
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
       <c r="AL21" t="n">
         <v>0.4</v>
       </c>
-      <c r="AM21" t="n">
-        <v>0.04999999999999999</v>
-      </c>
       <c r="AP21" t="inlineStr">
         <is>
           <t>Division Office</t>
@@ -3355,42 +2695,9 @@
           <t>JRF ANGOYNA GENERAL CONSTRUCTION/REKO KONSTRUCT-JV</t>
         </is>
       </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
       <c r="AL22" t="n">
         <v>0.55</v>
       </c>
-      <c r="AM22" t="n">
-        <v>0.1499999999999999</v>
-      </c>
       <c r="AP22" t="inlineStr">
         <is>
           <t>Division Office</t>
@@ -3472,40 +2779,7 @@
           <t>Ongoing Preparation of Plans, POW and CMP</t>
         </is>
       </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
       <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AP23" t="inlineStr">

--- a/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
+++ b/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,2106 +447,2137 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="34" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="24" customWidth="1" min="10" max="10"/>
+    <col width="58" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="19" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="64" customWidth="1" min="26" max="26"/>
+    <col width="123" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AB1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>134979</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Bangued West CS</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>BANGUED (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>3477721.44</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="inlineStr"/>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="inlineStr"/>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="4" t="inlineStr"/>
-      <c r="R2" s="4" t="inlineStr"/>
-      <c r="S2" s="4" t="inlineStr"/>
-      <c r="T2" s="4" t="inlineStr"/>
-      <c r="U2" s="4" t="inlineStr"/>
-      <c r="V2" s="4" t="inlineStr"/>
-      <c r="W2" s="4" t="inlineStr"/>
-      <c r="X2" s="4" t="inlineStr"/>
-      <c r="Y2" s="4" t="inlineStr"/>
-      <c r="Z2" s="4" t="inlineStr"/>
-      <c r="AA2" s="4" t="inlineStr"/>
-      <c r="AB2" s="4" t="n"/>
+      <c r="P2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="R2" s="5" t="inlineStr"/>
+      <c r="S2" s="5" t="inlineStr"/>
+      <c r="T2" s="5" t="inlineStr"/>
+      <c r="U2" s="5" t="inlineStr"/>
+      <c r="V2" s="5" t="inlineStr"/>
+      <c r="W2" s="5" t="inlineStr"/>
+      <c r="X2" s="5" t="inlineStr"/>
+      <c r="Y2" s="5" t="inlineStr"/>
+      <c r="Z2" s="5" t="inlineStr"/>
+      <c r="AA2" s="5" t="inlineStr"/>
+      <c r="AB2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>135397</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Topdac ES</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>ATOK</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>12177572.29</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="inlineStr"/>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr"/>
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4" t="inlineStr"/>
-      <c r="R3" s="4" t="inlineStr"/>
-      <c r="S3" s="4" t="inlineStr"/>
-      <c r="T3" s="4" t="inlineStr"/>
-      <c r="U3" s="4" t="inlineStr"/>
-      <c r="V3" s="4" t="inlineStr"/>
-      <c r="W3" s="4" t="inlineStr"/>
-      <c r="X3" s="4" t="inlineStr"/>
-      <c r="Y3" s="4" t="inlineStr"/>
-      <c r="Z3" s="4" t="inlineStr"/>
-      <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="4" t="n"/>
+      <c r="P3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr"/>
+      <c r="T3" s="5" t="inlineStr"/>
+      <c r="U3" s="5" t="inlineStr"/>
+      <c r="V3" s="5" t="inlineStr"/>
+      <c r="W3" s="5" t="inlineStr"/>
+      <c r="X3" s="5" t="inlineStr"/>
+      <c r="Y3" s="5" t="inlineStr"/>
+      <c r="Z3" s="5" t="inlineStr"/>
+      <c r="AA3" s="5" t="inlineStr"/>
+      <c r="AB3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>135737</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Tublay Central Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>TUBLAY</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>13636660.38</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="inlineStr"/>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr"/>
-      <c r="S4" s="4" t="inlineStr"/>
-      <c r="T4" s="4" t="inlineStr"/>
-      <c r="U4" s="4" t="inlineStr"/>
-      <c r="V4" s="4" t="inlineStr"/>
-      <c r="W4" s="4" t="inlineStr"/>
-      <c r="X4" s="4" t="inlineStr"/>
-      <c r="Y4" s="4" t="inlineStr"/>
-      <c r="Z4" s="4" t="inlineStr"/>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="4" t="n"/>
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr"/>
+      <c r="T4" s="5" t="inlineStr"/>
+      <c r="U4" s="5" t="inlineStr"/>
+      <c r="V4" s="5" t="inlineStr"/>
+      <c r="W4" s="5" t="inlineStr"/>
+      <c r="X4" s="5" t="inlineStr"/>
+      <c r="Y4" s="5" t="inlineStr"/>
+      <c r="Z4" s="5" t="inlineStr"/>
+      <c r="AA4" s="5" t="inlineStr"/>
+      <c r="AB4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>136248</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Tambuan Elementary School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>BESAO</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>12055183.04</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4" t="inlineStr"/>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
-      <c r="X5" s="4" t="inlineStr"/>
-      <c r="Y5" s="4" t="inlineStr"/>
-      <c r="Z5" s="4" t="inlineStr"/>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="4" t="n"/>
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr"/>
+      <c r="U5" s="5" t="inlineStr"/>
+      <c r="V5" s="5" t="inlineStr"/>
+      <c r="W5" s="5" t="inlineStr"/>
+      <c r="X5" s="5" t="inlineStr"/>
+      <c r="Y5" s="5" t="inlineStr"/>
+      <c r="Z5" s="5" t="inlineStr"/>
+      <c r="AA5" s="5" t="inlineStr"/>
+      <c r="AB5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>136356</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Balaoa Elementary School</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>TADIAN</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5" t="n">
         <v>4108545.870713225</v>
       </c>
-      <c r="M6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr"/>
-      <c r="S6" s="4" t="inlineStr"/>
-      <c r="T6" s="4" t="inlineStr"/>
-      <c r="U6" s="4" t="inlineStr"/>
-      <c r="V6" s="4" t="inlineStr"/>
-      <c r="W6" s="4" t="inlineStr"/>
-      <c r="X6" s="4" t="inlineStr"/>
-      <c r="Y6" s="4" t="inlineStr"/>
-      <c r="Z6" s="4" t="inlineStr"/>
-      <c r="AA6" s="4" t="inlineStr"/>
-      <c r="AB6" s="4" t="n"/>
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr"/>
+      <c r="T6" s="5" t="inlineStr"/>
+      <c r="U6" s="5" t="inlineStr"/>
+      <c r="V6" s="5" t="inlineStr"/>
+      <c r="W6" s="5" t="inlineStr"/>
+      <c r="X6" s="5" t="inlineStr"/>
+      <c r="Y6" s="5" t="inlineStr"/>
+      <c r="Z6" s="5" t="inlineStr"/>
+      <c r="AA6" s="5" t="inlineStr"/>
+      <c r="AB6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>136358</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Bantey Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>TADIAN</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="5" t="n">
         <v>12490756.76</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="inlineStr"/>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="M7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr"/>
-      <c r="W7" s="4" t="inlineStr"/>
-      <c r="X7" s="4" t="inlineStr"/>
-      <c r="Y7" s="4" t="inlineStr"/>
-      <c r="Z7" s="4" t="inlineStr"/>
-      <c r="AA7" s="4" t="inlineStr"/>
-      <c r="AB7" s="4" t="n"/>
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="R7" s="5" t="inlineStr"/>
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="5" t="inlineStr"/>
+      <c r="U7" s="5" t="inlineStr"/>
+      <c r="V7" s="5" t="inlineStr"/>
+      <c r="W7" s="5" t="inlineStr"/>
+      <c r="X7" s="5" t="inlineStr"/>
+      <c r="Y7" s="5" t="inlineStr"/>
+      <c r="Z7" s="5" t="inlineStr"/>
+      <c r="AA7" s="5" t="inlineStr"/>
+      <c r="AB7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>136363</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Dacudac Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>TADIAN</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="5" t="n">
         <v>6837175.68</v>
       </c>
-      <c r="M8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="inlineStr"/>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="M8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
-      <c r="X8" s="4" t="inlineStr"/>
-      <c r="Y8" s="4" t="inlineStr"/>
-      <c r="Z8" s="4" t="inlineStr"/>
-      <c r="AA8" s="4" t="inlineStr"/>
-      <c r="AB8" s="4" t="n"/>
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="R8" s="5" t="inlineStr"/>
+      <c r="S8" s="5" t="inlineStr"/>
+      <c r="T8" s="5" t="inlineStr"/>
+      <c r="U8" s="5" t="inlineStr"/>
+      <c r="V8" s="5" t="inlineStr"/>
+      <c r="W8" s="5" t="inlineStr"/>
+      <c r="X8" s="5" t="inlineStr"/>
+      <c r="Y8" s="5" t="inlineStr"/>
+      <c r="Z8" s="5" t="inlineStr"/>
+      <c r="AA8" s="5" t="inlineStr"/>
+      <c r="AB8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>136367</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Kayan Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>TADIAN</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="5" t="n">
         <v>17916759.49</v>
       </c>
-      <c r="M9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4" t="inlineStr"/>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="M9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="4" t="inlineStr"/>
-      <c r="R9" s="4" t="inlineStr"/>
-      <c r="S9" s="4" t="inlineStr"/>
-      <c r="T9" s="4" t="inlineStr"/>
-      <c r="U9" s="4" t="inlineStr"/>
-      <c r="V9" s="4" t="inlineStr"/>
-      <c r="W9" s="4" t="inlineStr"/>
-      <c r="X9" s="4" t="inlineStr"/>
-      <c r="Y9" s="4" t="inlineStr"/>
-      <c r="Z9" s="4" t="inlineStr"/>
-      <c r="AA9" s="4" t="inlineStr"/>
-      <c r="AB9" s="4" t="n"/>
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="R9" s="5" t="inlineStr"/>
+      <c r="S9" s="5" t="inlineStr"/>
+      <c r="T9" s="5" t="inlineStr"/>
+      <c r="U9" s="5" t="inlineStr"/>
+      <c r="V9" s="5" t="inlineStr"/>
+      <c r="W9" s="5" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr"/>
+      <c r="Y9" s="5" t="inlineStr"/>
+      <c r="Z9" s="5" t="inlineStr"/>
+      <c r="AA9" s="5" t="inlineStr"/>
+      <c r="AB9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>134989</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Bucay CS</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>BUCAY</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5" t="n">
         <v>5216538</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4" t="inlineStr"/>
-      <c r="O10" s="4" t="inlineStr">
+      <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr"/>
-      <c r="S10" s="4" t="inlineStr"/>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
-      <c r="X10" s="4" t="inlineStr"/>
-      <c r="Y10" s="4" t="inlineStr"/>
-      <c r="Z10" s="4" t="inlineStr"/>
-      <c r="AA10" s="4" t="inlineStr"/>
-      <c r="AB10" s="4" t="n"/>
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr"/>
+      <c r="W10" s="5" t="inlineStr"/>
+      <c r="X10" s="5" t="inlineStr"/>
+      <c r="Y10" s="5" t="inlineStr"/>
+      <c r="Z10" s="5" t="inlineStr"/>
+      <c r="AA10" s="5" t="inlineStr"/>
+      <c r="AB10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>135017</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Dolores CS</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>DOLORES</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>4582774</v>
       </c>
-      <c r="M11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="M11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr"/>
-      <c r="W11" s="4" t="inlineStr"/>
-      <c r="X11" s="4" t="inlineStr"/>
-      <c r="Y11" s="4" t="inlineStr"/>
-      <c r="Z11" s="4" t="inlineStr"/>
-      <c r="AA11" s="4" t="inlineStr"/>
-      <c r="AB11" s="4" t="n"/>
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr"/>
+      <c r="V11" s="5" t="inlineStr"/>
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="5" t="inlineStr"/>
+      <c r="Y11" s="5" t="inlineStr"/>
+      <c r="Z11" s="5" t="inlineStr"/>
+      <c r="AA11" s="5" t="inlineStr"/>
+      <c r="AB11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>135103</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Luba CS</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>LUBA</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>5026084</v>
       </c>
-      <c r="M12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4" t="inlineStr"/>
-      <c r="O12" s="4" t="inlineStr">
+      <c r="M12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4" t="inlineStr"/>
-      <c r="R12" s="4" t="inlineStr"/>
-      <c r="S12" s="4" t="inlineStr"/>
-      <c r="T12" s="4" t="inlineStr"/>
-      <c r="U12" s="4" t="inlineStr"/>
-      <c r="V12" s="4" t="inlineStr"/>
-      <c r="W12" s="4" t="inlineStr"/>
-      <c r="X12" s="4" t="inlineStr"/>
-      <c r="Y12" s="4" t="inlineStr"/>
-      <c r="Z12" s="4" t="inlineStr"/>
-      <c r="AA12" s="4" t="inlineStr"/>
-      <c r="AB12" s="4" t="n"/>
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="R12" s="5" t="inlineStr"/>
+      <c r="S12" s="5" t="inlineStr"/>
+      <c r="T12" s="5" t="inlineStr"/>
+      <c r="U12" s="5" t="inlineStr"/>
+      <c r="V12" s="5" t="inlineStr"/>
+      <c r="W12" s="5" t="inlineStr"/>
+      <c r="X12" s="5" t="inlineStr"/>
+      <c r="Y12" s="5" t="inlineStr"/>
+      <c r="Z12" s="5" t="inlineStr"/>
+      <c r="AA12" s="5" t="inlineStr"/>
+      <c r="AB12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>135435</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Bokod CS</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>BOKOD</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5" t="n">
         <v>16817332</v>
       </c>
-      <c r="M13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4" t="inlineStr"/>
-      <c r="O13" s="4" t="inlineStr">
+      <c r="M13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4" t="inlineStr"/>
-      <c r="R13" s="4" t="inlineStr"/>
-      <c r="S13" s="4" t="inlineStr"/>
-      <c r="T13" s="4" t="inlineStr"/>
-      <c r="U13" s="4" t="inlineStr"/>
-      <c r="V13" s="4" t="inlineStr"/>
-      <c r="W13" s="4" t="inlineStr"/>
-      <c r="X13" s="4" t="inlineStr"/>
-      <c r="Y13" s="4" t="inlineStr"/>
-      <c r="Z13" s="4" t="inlineStr"/>
-      <c r="AA13" s="4" t="inlineStr"/>
-      <c r="AB13" s="4" t="n"/>
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="inlineStr"/>
+      <c r="S13" s="5" t="inlineStr"/>
+      <c r="T13" s="5" t="inlineStr"/>
+      <c r="U13" s="5" t="inlineStr"/>
+      <c r="V13" s="5" t="inlineStr"/>
+      <c r="W13" s="5" t="inlineStr"/>
+      <c r="X13" s="5" t="inlineStr"/>
+      <c r="Y13" s="5" t="inlineStr"/>
+      <c r="Z13" s="5" t="inlineStr"/>
+      <c r="AA13" s="5" t="inlineStr"/>
+      <c r="AB13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>136202</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Bauko Central School</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>BAUKO</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>38640021</v>
       </c>
-      <c r="M14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4" t="inlineStr"/>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4" t="inlineStr"/>
-      <c r="R14" s="4" t="inlineStr"/>
-      <c r="S14" s="4" t="inlineStr"/>
-      <c r="T14" s="4" t="inlineStr"/>
-      <c r="U14" s="4" t="inlineStr"/>
-      <c r="V14" s="4" t="inlineStr"/>
-      <c r="W14" s="4" t="inlineStr"/>
-      <c r="X14" s="4" t="inlineStr"/>
-      <c r="Y14" s="4" t="inlineStr"/>
-      <c r="Z14" s="4" t="inlineStr"/>
-      <c r="AA14" s="4" t="inlineStr"/>
-      <c r="AB14" s="4" t="n"/>
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="R14" s="5" t="inlineStr"/>
+      <c r="S14" s="5" t="inlineStr"/>
+      <c r="T14" s="5" t="inlineStr"/>
+      <c r="U14" s="5" t="inlineStr"/>
+      <c r="V14" s="5" t="inlineStr"/>
+      <c r="W14" s="5" t="inlineStr"/>
+      <c r="X14" s="5" t="inlineStr"/>
+      <c r="Y14" s="5" t="inlineStr"/>
+      <c r="Z14" s="5" t="inlineStr"/>
+      <c r="AA14" s="5" t="inlineStr"/>
+      <c r="AB14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>136239</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Dandanac Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>BESAO</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>14828997.48</v>
       </c>
-      <c r="M15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4" t="n">
+      <c r="M15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5" t="n">
         <v>147777975.49</v>
       </c>
-      <c r="O15" s="4" t="inlineStr">
+      <c r="O15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4" t="inlineStr">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
         <is>
           <t>5/31/2023</t>
         </is>
       </c>
-      <c r="R15" s="4" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>August 10, 2023</t>
         </is>
       </c>
-      <c r="S15" s="4" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>INF2022GAB001</t>
         </is>
       </c>
-      <c r="T15" s="4" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>INF2022GAB001</t>
         </is>
       </c>
-      <c r="U15" s="4" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>7/30/2022</t>
         </is>
       </c>
-      <c r="V15" s="5" t="n">
+      <c r="V15" s="7" t="n">
         <v>44600</v>
       </c>
-      <c r="W15" s="4" t="inlineStr">
+      <c r="W15" s="5" t="inlineStr">
         <is>
           <t>8/15/2022</t>
         </is>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>Sept 19, 2022</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>11/25/2022</t>
         </is>
       </c>
-      <c r="Z15" s="4" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>JM-MAS Construction &amp; Gen. MDSE.</t>
         </is>
       </c>
-      <c r="AA15" s="4" t="inlineStr"/>
-      <c r="AB15" s="4" t="n"/>
+      <c r="AA15" s="5" t="inlineStr"/>
+      <c r="AB15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>136342</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Ambasing Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>SAGADA</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>37800000</v>
       </c>
-      <c r="M16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4" t="n">
+      <c r="M16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5" t="n">
         <v>37720000</v>
       </c>
-      <c r="O16" s="4" t="inlineStr">
+      <c r="O16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>7/30/2023</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>July 12, 2024</t>
         </is>
       </c>
-      <c r="S16" s="4" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>INF2022GAB002</t>
         </is>
       </c>
-      <c r="T16" s="4" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>INF2022GAB002</t>
         </is>
       </c>
-      <c r="U16" s="4" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
         <is>
           <t>7/30/2023</t>
         </is>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="7" t="n">
         <v>44600</v>
       </c>
-      <c r="W16" s="4" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
         <is>
           <t>8/15/2022</t>
         </is>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>Sept 19, 2022</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>11/25/2022</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA16" s="4" t="inlineStr"/>
-      <c r="AB16" s="4" t="n"/>
+      <c r="AA16" s="5" t="inlineStr"/>
+      <c r="AB16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Baguio City</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>136382</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Baguio Central School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>BAGUIO CITY</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="5" t="n">
         <v>41223103.23</v>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4" t="n">
+      <c r="M17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5" t="n">
         <v>40014561</v>
       </c>
-      <c r="O17" s="4" t="inlineStr">
+      <c r="O17" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="P17" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="4" t="inlineStr">
+      <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>November 5,2025</t>
         </is>
       </c>
-      <c r="R17" s="4" t="inlineStr"/>
-      <c r="S17" s="4" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr"/>
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>No.027,s.2023</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr">
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>No.027,s.2023</t>
         </is>
       </c>
-      <c r="U17" s="4" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>December 9, 2023</t>
         </is>
       </c>
-      <c r="V17" s="4" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="W17" s="4" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>December 29, 2023</t>
         </is>
       </c>
-      <c r="X17" s="4" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>January 18, 2024</t>
         </is>
       </c>
-      <c r="Y17" s="4" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>February 20, 2024</t>
         </is>
       </c>
-      <c r="Z17" s="4" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>EZRAH Construction Services/HGW=3 Engineering and Construction</t>
         </is>
       </c>
-      <c r="AA17" s="4" t="inlineStr">
+      <c r="AA17" s="5" t="inlineStr">
         <is>
           <t>Project suspended as to LGU's order while the submission and approval of Conservation Management Plan and Building Permit</t>
         </is>
       </c>
-      <c r="AB17" s="4" t="n"/>
+      <c r="AB17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>135402</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Bagu ES</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>BAKUN</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="M18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4" t="n">
+      <c r="M18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="O18" s="4" t="inlineStr">
+      <c r="O18" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>9/17/2024</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>12/13/2024</t>
         </is>
       </c>
-      <c r="S18" s="4" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>GAB-2023-01</t>
         </is>
       </c>
-      <c r="T18" s="4" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>GAB-2023-02</t>
         </is>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="7" t="n">
         <v>45051</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="W18" s="4" t="inlineStr">
+      <c r="W18" s="5" t="inlineStr">
         <is>
           <t>5/25/2023</t>
         </is>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>7/28/2023</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>9/18/2023</t>
         </is>
       </c>
-      <c r="Z18" s="4" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>SCA JR BUILDERS</t>
         </is>
       </c>
-      <c r="AA18" s="4" t="inlineStr"/>
-      <c r="AB18" s="4" t="n"/>
+      <c r="AA18" s="5" t="inlineStr"/>
+      <c r="AB18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>134979</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Bangued West CS</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>BANGUED (Capital)</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>12905610</v>
       </c>
-      <c r="M19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4" t="n">
+      <c r="M19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5" t="n">
         <v>12887697.3</v>
       </c>
-      <c r="O19" s="4" t="inlineStr">
+      <c r="O19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="P19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>November 5, 2024</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>November 5, 2024</t>
         </is>
       </c>
-      <c r="S19" s="4" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-006</t>
         </is>
       </c>
-      <c r="T19" s="4" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>2024-07-007</t>
         </is>
       </c>
-      <c r="U19" s="4" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>April 17, 2024</t>
         </is>
       </c>
-      <c r="V19" s="4" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>April 24, 2024</t>
         </is>
       </c>
-      <c r="W19" s="4" t="inlineStr">
+      <c r="W19" s="5" t="inlineStr">
         <is>
           <t>May 7, 2024</t>
         </is>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>May 16, 2024</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>July 8, 2024</t>
         </is>
       </c>
-      <c r="Z19" s="4" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA19" s="4" t="inlineStr"/>
-      <c r="AB19" s="4" t="n"/>
+      <c r="AA19" s="5" t="inlineStr"/>
+      <c r="AB19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>135223</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>San Juan CS</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>SAN JUAN</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>25000000</v>
       </c>
-      <c r="M20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4" t="n">
+      <c r="M20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="n">
         <v>24988913.87</v>
       </c>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="O20" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>February 3, 2025</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr"/>
-      <c r="S20" s="4" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-006</t>
         </is>
       </c>
-      <c r="T20" s="4" t="inlineStr">
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>2024-07-007</t>
         </is>
       </c>
-      <c r="U20" s="4" t="inlineStr">
+      <c r="U20" s="5" t="inlineStr">
         <is>
           <t>April 17, 2024</t>
         </is>
       </c>
-      <c r="V20" s="4" t="inlineStr">
+      <c r="V20" s="5" t="inlineStr">
         <is>
           <t>April 24, 2024</t>
         </is>
       </c>
-      <c r="W20" s="4" t="inlineStr">
+      <c r="W20" s="5" t="inlineStr">
         <is>
           <t>May 7, 2024</t>
         </is>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>May 16, 2024</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>July 8, 2024</t>
         </is>
       </c>
-      <c r="Z20" s="4" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA20" s="4" t="inlineStr"/>
-      <c r="AB20" s="4" t="n"/>
+      <c r="AA20" s="5" t="inlineStr"/>
+      <c r="AB20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>135438</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Daklan ES</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>BOKOD</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>19094390</v>
       </c>
-      <c r="M21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4" t="n">
+      <c r="M21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="5" t="n">
         <v>18378750</v>
       </c>
-      <c r="O21" s="4" t="inlineStr">
+      <c r="O21" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P21" s="4" t="n">
+      <c r="P21" s="5" t="n">
         <v>0.45</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>August 5,2025</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr"/>
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>GAB-2024-02</t>
         </is>
       </c>
-      <c r="T21" s="4" t="inlineStr">
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>GAB-2024-02</t>
         </is>
       </c>
-      <c r="U21" s="4" t="inlineStr">
+      <c r="U21" s="5" t="inlineStr">
         <is>
           <t>MAY 29. 2024</t>
         </is>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="7" t="n">
         <v>45571</v>
       </c>
-      <c r="W21" s="4" t="inlineStr">
+      <c r="W21" s="5" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>September 26, 2024</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>October 31, 2024</t>
         </is>
       </c>
-      <c r="Z21" s="4" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA21" s="4" t="inlineStr"/>
-      <c r="AB21" s="4" t="n"/>
+      <c r="AA21" s="5" t="inlineStr"/>
+      <c r="AB21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>135619</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Bekkel ES</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>LA TRINIDAD (Capital)</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>23919100</v>
       </c>
-      <c r="M22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4" t="n">
+      <c r="M22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5" t="n">
         <v>22932793.89</v>
       </c>
-      <c r="O22" s="4" t="inlineStr">
+      <c r="O22" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P22" s="4" t="n">
+      <c r="P22" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>August 5,2025</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr"/>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr"/>
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>GAB-2024-01</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>GAB-2024-01</t>
         </is>
       </c>
-      <c r="U22" s="4" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>MAY 29. 2024</t>
         </is>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="7" t="n">
         <v>45571</v>
       </c>
-      <c r="W22" s="4" t="inlineStr">
+      <c r="W22" s="5" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>September 26, 2024</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>October 31, 2024</t>
         </is>
       </c>
-      <c r="Z22" s="4" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>JRF ANGOYNA GENERAL CONSTRUCTION/REKO KONSTRUCT-JV</t>
         </is>
       </c>
-      <c r="AA22" s="4" t="inlineStr"/>
-      <c r="AB22" s="4" t="n"/>
+      <c r="AA22" s="5" t="inlineStr"/>
+      <c r="AB22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>220020</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Ifugao SPED Center</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>LAGAWE (Capital)</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>34222823.15</v>
       </c>
-      <c r="M23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4" t="inlineStr"/>
-      <c r="O23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="5" t="inlineStr"/>
+      <c r="O23" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P23" s="4" t="n">
+      <c r="P23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" s="4" t="inlineStr"/>
-      <c r="R23" s="4" t="inlineStr"/>
-      <c r="S23" s="4" t="inlineStr"/>
-      <c r="T23" s="4" t="inlineStr"/>
-      <c r="U23" s="4" t="inlineStr"/>
-      <c r="V23" s="4" t="inlineStr"/>
-      <c r="W23" s="4" t="inlineStr"/>
-      <c r="X23" s="4" t="inlineStr"/>
-      <c r="Y23" s="4" t="inlineStr"/>
-      <c r="Z23" s="4" t="inlineStr"/>
-      <c r="AA23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="R23" s="5" t="inlineStr"/>
+      <c r="S23" s="5" t="inlineStr"/>
+      <c r="T23" s="5" t="inlineStr"/>
+      <c r="U23" s="5" t="inlineStr"/>
+      <c r="V23" s="5" t="inlineStr"/>
+      <c r="W23" s="5" t="inlineStr"/>
+      <c r="X23" s="5" t="inlineStr"/>
+      <c r="Y23" s="5" t="inlineStr"/>
+      <c r="Z23" s="5" t="inlineStr"/>
+      <c r="AA23" s="5" t="inlineStr">
         <is>
           <t>Ongoing Preparation of Plans, POW and CMP</t>
         </is>
       </c>
-      <c r="AB23" s="4" t="n"/>
+      <c r="AB23" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
+++ b/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
+++ b/Filtered_By_Region/CAR/CAR_GABALDON.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,240 +453,248 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="24" customWidth="1" min="10" max="10"/>
-    <col width="58" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="58" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="17" customWidth="1" min="15" max="15"/>
-    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
     <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="27" customWidth="1" min="18" max="18"/>
-    <col width="22" customWidth="1" min="19" max="19"/>
-    <col width="15" customWidth="1" min="20" max="20"/>
-    <col width="31" customWidth="1" min="21" max="21"/>
-    <col width="27" customWidth="1" min="22" max="22"/>
-    <col width="19" customWidth="1" min="23" max="23"/>
-    <col width="33" customWidth="1" min="24" max="24"/>
-    <col width="31" customWidth="1" min="25" max="25"/>
-    <col width="64" customWidth="1" min="26" max="26"/>
-    <col width="123" customWidth="1" min="27" max="27"/>
-    <col width="28" customWidth="1" min="28" max="28"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
+    <col width="22" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="31" customWidth="1" min="22" max="22"/>
+    <col width="27" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="24" max="24"/>
+    <col width="33" customWidth="1" min="25" max="25"/>
+    <col width="31" customWidth="1" min="26" max="26"/>
+    <col width="64" customWidth="1" min="27" max="27"/>
+    <col width="123" customWidth="1" min="28" max="28"/>
+    <col width="28" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF BUILDINGS</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="AA1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AB1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>134979</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Bangued West CS</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>BANGUED (Capital)</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="M2" s="5" t="n">
         <v>3477721.44</v>
       </c>
-      <c r="M2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5" t="inlineStr"/>
-      <c r="O2" s="5" t="inlineStr">
+      <c r="N2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="inlineStr"/>
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="inlineStr"/>
+      <c r="Q2" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" s="5" t="inlineStr"/>
       <c r="S2" s="5" t="inlineStr"/>
       <c r="T2" s="5" t="inlineStr"/>
@@ -697,70 +705,73 @@
       <c r="Y2" s="5" t="inlineStr"/>
       <c r="Z2" s="5" t="inlineStr"/>
       <c r="AA2" s="5" t="inlineStr"/>
-      <c r="AB2" s="6" t="n"/>
+      <c r="AB2" s="5" t="inlineStr"/>
+      <c r="AC2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>135397</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Topdac ES</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>ATOK</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="M3" s="5" t="n">
         <v>12177572.29</v>
       </c>
-      <c r="M3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5" t="inlineStr"/>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr"/>
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="Q3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" s="5" t="inlineStr"/>
       <c r="S3" s="5" t="inlineStr"/>
       <c r="T3" s="5" t="inlineStr"/>
@@ -771,70 +782,73 @@
       <c r="Y3" s="5" t="inlineStr"/>
       <c r="Z3" s="5" t="inlineStr"/>
       <c r="AA3" s="5" t="inlineStr"/>
-      <c r="AB3" s="6" t="n"/>
+      <c r="AB3" s="5" t="inlineStr"/>
+      <c r="AC3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>135737</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Tublay Central Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>TUBLAY</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="M4" s="5" t="n">
         <v>13636660.38</v>
       </c>
-      <c r="M4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr">
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" s="5" t="inlineStr"/>
       <c r="S4" s="5" t="inlineStr"/>
       <c r="T4" s="5" t="inlineStr"/>
@@ -845,70 +859,73 @@
       <c r="Y4" s="5" t="inlineStr"/>
       <c r="Z4" s="5" t="inlineStr"/>
       <c r="AA4" s="5" t="inlineStr"/>
-      <c r="AB4" s="6" t="n"/>
+      <c r="AB4" s="5" t="inlineStr"/>
+      <c r="AC4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>136248</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Tambuan Elementary School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>BESAO</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>12055183.04</v>
       </c>
-      <c r="M5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" s="5" t="inlineStr"/>
       <c r="S5" s="5" t="inlineStr"/>
       <c r="T5" s="5" t="inlineStr"/>
@@ -919,70 +936,73 @@
       <c r="Y5" s="5" t="inlineStr"/>
       <c r="Z5" s="5" t="inlineStr"/>
       <c r="AA5" s="5" t="inlineStr"/>
-      <c r="AB5" s="6" t="n"/>
+      <c r="AB5" s="5" t="inlineStr"/>
+      <c r="AC5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>136356</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Balaoa Elementary School</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>TADIAN</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="M6" s="5" t="n">
         <v>4108545.870713225</v>
       </c>
-      <c r="M6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R6" s="5" t="inlineStr"/>
       <c r="S6" s="5" t="inlineStr"/>
       <c r="T6" s="5" t="inlineStr"/>
@@ -993,70 +1013,73 @@
       <c r="Y6" s="5" t="inlineStr"/>
       <c r="Z6" s="5" t="inlineStr"/>
       <c r="AA6" s="5" t="inlineStr"/>
-      <c r="AB6" s="6" t="n"/>
+      <c r="AB6" s="5" t="inlineStr"/>
+      <c r="AC6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>136358</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Bantey Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>TADIAN</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="M7" s="5" t="n">
         <v>12490756.76</v>
       </c>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" s="5" t="inlineStr"/>
       <c r="S7" s="5" t="inlineStr"/>
       <c r="T7" s="5" t="inlineStr"/>
@@ -1067,70 +1090,73 @@
       <c r="Y7" s="5" t="inlineStr"/>
       <c r="Z7" s="5" t="inlineStr"/>
       <c r="AA7" s="5" t="inlineStr"/>
-      <c r="AB7" s="6" t="n"/>
+      <c r="AB7" s="5" t="inlineStr"/>
+      <c r="AC7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>136363</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Dacudac Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>TADIAN</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="M8" s="5" t="n">
         <v>6837175.68</v>
       </c>
-      <c r="M8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" s="5" t="inlineStr"/>
       <c r="S8" s="5" t="inlineStr"/>
       <c r="T8" s="5" t="inlineStr"/>
@@ -1141,70 +1167,73 @@
       <c r="Y8" s="5" t="inlineStr"/>
       <c r="Z8" s="5" t="inlineStr"/>
       <c r="AA8" s="5" t="inlineStr"/>
-      <c r="AB8" s="6" t="n"/>
+      <c r="AB8" s="5" t="inlineStr"/>
+      <c r="AC8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2020</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>136367</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Kayan Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>TADIAN</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="M9" s="5" t="n">
         <v>17916759.49</v>
       </c>
-      <c r="M9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="N9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" s="5" t="inlineStr"/>
       <c r="S9" s="5" t="inlineStr"/>
       <c r="T9" s="5" t="inlineStr"/>
@@ -1215,70 +1244,73 @@
       <c r="Y9" s="5" t="inlineStr"/>
       <c r="Z9" s="5" t="inlineStr"/>
       <c r="AA9" s="5" t="inlineStr"/>
-      <c r="AB9" s="6" t="n"/>
+      <c r="AB9" s="5" t="inlineStr"/>
+      <c r="AC9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>134989</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Bucay CS</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>BUCAY</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="M10" s="5" t="n">
         <v>5216538</v>
       </c>
-      <c r="M10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="N10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R10" s="5" t="inlineStr"/>
       <c r="S10" s="5" t="inlineStr"/>
       <c r="T10" s="5" t="inlineStr"/>
@@ -1289,70 +1321,73 @@
       <c r="Y10" s="5" t="inlineStr"/>
       <c r="Z10" s="5" t="inlineStr"/>
       <c r="AA10" s="5" t="inlineStr"/>
-      <c r="AB10" s="6" t="n"/>
+      <c r="AB10" s="5" t="inlineStr"/>
+      <c r="AC10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>135017</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Dolores CS</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>DOLORES</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="M11" s="5" t="n">
         <v>4582774</v>
       </c>
-      <c r="M11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="N11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" s="5" t="inlineStr"/>
       <c r="S11" s="5" t="inlineStr"/>
       <c r="T11" s="5" t="inlineStr"/>
@@ -1363,70 +1398,73 @@
       <c r="Y11" s="5" t="inlineStr"/>
       <c r="Z11" s="5" t="inlineStr"/>
       <c r="AA11" s="5" t="inlineStr"/>
-      <c r="AB11" s="6" t="n"/>
+      <c r="AB11" s="5" t="inlineStr"/>
+      <c r="AC11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>135103</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Luba CS</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>LUBA</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="H12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="M12" s="5" t="n">
         <v>5026084</v>
       </c>
-      <c r="M12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" s="5" t="inlineStr"/>
       <c r="S12" s="5" t="inlineStr"/>
       <c r="T12" s="5" t="inlineStr"/>
@@ -1437,70 +1475,73 @@
       <c r="Y12" s="5" t="inlineStr"/>
       <c r="Z12" s="5" t="inlineStr"/>
       <c r="AA12" s="5" t="inlineStr"/>
-      <c r="AB12" s="6" t="n"/>
+      <c r="AB12" s="5" t="inlineStr"/>
+      <c r="AC12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>132</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>135435</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Bokod CS</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>BOKOD</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="H13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="M13" s="5" t="n">
         <v>16817332</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr">
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" s="5" t="inlineStr"/>
       <c r="S13" s="5" t="inlineStr"/>
       <c r="T13" s="5" t="inlineStr"/>
@@ -1511,70 +1552,73 @@
       <c r="Y13" s="5" t="inlineStr"/>
       <c r="Z13" s="5" t="inlineStr"/>
       <c r="AA13" s="5" t="inlineStr"/>
-      <c r="AB13" s="6" t="n"/>
+      <c r="AB13" s="5" t="inlineStr"/>
+      <c r="AC13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2021</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>136202</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Bauko Central School</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>BAUKO</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>38640021</v>
       </c>
-      <c r="M14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" s="5" t="inlineStr"/>
       <c r="S14" s="5" t="inlineStr"/>
       <c r="T14" s="5" t="inlineStr"/>
@@ -1585,984 +1629,1011 @@
       <c r="Y14" s="5" t="inlineStr"/>
       <c r="Z14" s="5" t="inlineStr"/>
       <c r="AA14" s="5" t="inlineStr"/>
-      <c r="AB14" s="6" t="n"/>
+      <c r="AB14" s="5" t="inlineStr"/>
+      <c r="AC14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>170</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>136239</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Dandanac Elementary School</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>BESAO</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="H15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>14828997.48</v>
       </c>
-      <c r="M15" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5" t="n">
         <v>147777975.49</v>
       </c>
-      <c r="O15" s="5" t="inlineStr">
+      <c r="P15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="inlineStr">
+      <c r="Q15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>5/31/2023</t>
         </is>
       </c>
-      <c r="R15" s="5" t="inlineStr">
+      <c r="S15" s="5" t="inlineStr">
         <is>
           <t>August 10, 2023</t>
         </is>
       </c>
-      <c r="S15" s="5" t="inlineStr">
+      <c r="T15" s="5" t="inlineStr">
         <is>
           <t>INF2022GAB001</t>
         </is>
       </c>
-      <c r="T15" s="5" t="inlineStr">
+      <c r="U15" s="5" t="inlineStr">
         <is>
           <t>INF2022GAB001</t>
         </is>
       </c>
-      <c r="U15" s="5" t="inlineStr">
+      <c r="V15" s="5" t="inlineStr">
         <is>
           <t>7/30/2022</t>
         </is>
       </c>
-      <c r="V15" s="7" t="n">
+      <c r="W15" s="7" t="n">
         <v>44600</v>
       </c>
-      <c r="W15" s="5" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>8/15/2022</t>
         </is>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>Sept 19, 2022</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="inlineStr">
+      <c r="Z15" s="5" t="inlineStr">
         <is>
           <t>11/25/2022</t>
         </is>
       </c>
-      <c r="Z15" s="5" t="inlineStr">
+      <c r="AA15" s="5" t="inlineStr">
         <is>
           <t>JM-MAS Construction &amp; Gen. MDSE.</t>
         </is>
       </c>
-      <c r="AA15" s="5" t="inlineStr"/>
-      <c r="AB15" s="6" t="n"/>
+      <c r="AB15" s="5" t="inlineStr"/>
+      <c r="AC15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>171</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2022</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Mt. Province</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>136342</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Ambasing Elementary School</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>SAGADA</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="J16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>Rehabilitation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>37800000</v>
       </c>
-      <c r="M16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5" t="n">
         <v>37720000</v>
       </c>
-      <c r="O16" s="5" t="inlineStr">
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="Q16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>7/30/2023</t>
         </is>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>July 12, 2024</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>INF2022GAB002</t>
         </is>
       </c>
-      <c r="T16" s="5" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
         <is>
           <t>INF2022GAB002</t>
         </is>
       </c>
-      <c r="U16" s="5" t="inlineStr">
+      <c r="V16" s="5" t="inlineStr">
         <is>
           <t>7/30/2023</t>
         </is>
       </c>
-      <c r="V16" s="7" t="n">
+      <c r="W16" s="7" t="n">
         <v>44600</v>
       </c>
-      <c r="W16" s="5" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>8/15/2022</t>
         </is>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>Sept 19, 2022</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>11/25/2022</t>
         </is>
       </c>
-      <c r="Z16" s="5" t="inlineStr">
+      <c r="AA16" s="5" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA16" s="5" t="inlineStr"/>
-      <c r="AB16" s="6" t="n"/>
+      <c r="AB16" s="5" t="inlineStr"/>
+      <c r="AC16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>178</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Baguio City</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>136382</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Baguio Central School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>BAGUIO CITY</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="M17" s="5" t="n">
         <v>41223103.23</v>
       </c>
-      <c r="M17" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="n">
         <v>40014561</v>
       </c>
-      <c r="O17" s="5" t="inlineStr">
+      <c r="P17" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="Q17" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="5" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>November 5,2025</t>
         </is>
       </c>
-      <c r="R17" s="5" t="inlineStr"/>
-      <c r="S17" s="5" t="inlineStr">
+      <c r="S17" s="5" t="inlineStr"/>
+      <c r="T17" s="5" t="inlineStr">
         <is>
           <t>No.027,s.2023</t>
         </is>
       </c>
-      <c r="T17" s="5" t="inlineStr">
+      <c r="U17" s="5" t="inlineStr">
         <is>
           <t>No.027,s.2023</t>
         </is>
       </c>
-      <c r="U17" s="5" t="inlineStr">
+      <c r="V17" s="5" t="inlineStr">
         <is>
           <t>December 9, 2023</t>
         </is>
       </c>
-      <c r="V17" s="5" t="inlineStr">
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>December 15, 2023</t>
         </is>
       </c>
-      <c r="W17" s="5" t="inlineStr">
+      <c r="X17" s="5" t="inlineStr">
         <is>
           <t>December 29, 2023</t>
         </is>
       </c>
-      <c r="X17" s="5" t="inlineStr">
+      <c r="Y17" s="5" t="inlineStr">
         <is>
           <t>January 18, 2024</t>
         </is>
       </c>
-      <c r="Y17" s="5" t="inlineStr">
+      <c r="Z17" s="5" t="inlineStr">
         <is>
           <t>February 20, 2024</t>
         </is>
       </c>
-      <c r="Z17" s="5" t="inlineStr">
+      <c r="AA17" s="5" t="inlineStr">
         <is>
           <t>EZRAH Construction Services/HGW=3 Engineering and Construction</t>
         </is>
       </c>
-      <c r="AA17" s="5" t="inlineStr">
+      <c r="AB17" s="5" t="inlineStr">
         <is>
           <t>Project suspended as to LGU's order while the submission and approval of Conservation Management Plan and Building Permit</t>
         </is>
       </c>
-      <c r="AB17" s="6" t="n"/>
+      <c r="AC17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>179</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2023</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>135402</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Bagu ES</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>BAKUN</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="H18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>Restoration &amp; Conservation of Gabaldon Building</t>
         </is>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="M18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="n">
         <v>10000000</v>
       </c>
-      <c r="O18" s="5" t="inlineStr">
+      <c r="P18" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="P18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="Q18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>9/17/2024</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>12/13/2024</t>
         </is>
       </c>
-      <c r="S18" s="5" t="inlineStr">
+      <c r="T18" s="5" t="inlineStr">
         <is>
           <t>GAB-2023-01</t>
         </is>
       </c>
-      <c r="T18" s="5" t="inlineStr">
+      <c r="U18" s="5" t="inlineStr">
         <is>
           <t>GAB-2023-02</t>
         </is>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="V18" s="7" t="n">
         <v>45051</v>
       </c>
-      <c r="V18" s="7" t="n">
+      <c r="W18" s="7" t="n">
         <v>45265</v>
       </c>
-      <c r="W18" s="5" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>5/25/2023</t>
         </is>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>7/28/2023</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="inlineStr">
+      <c r="Z18" s="5" t="inlineStr">
         <is>
           <t>9/18/2023</t>
         </is>
       </c>
-      <c r="Z18" s="5" t="inlineStr">
+      <c r="AA18" s="5" t="inlineStr">
         <is>
           <t>SCA JR BUILDERS</t>
         </is>
       </c>
-      <c r="AA18" s="5" t="inlineStr"/>
-      <c r="AB18" s="6" t="n"/>
+      <c r="AB18" s="5" t="inlineStr"/>
+      <c r="AC18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>134979</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Bangued West CS</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>BANGUED (Capital)</t>
         </is>
       </c>
-      <c r="G19" s="5" t="inlineStr">
+      <c r="H19" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="J19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>12905610</v>
       </c>
-      <c r="M19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5" t="n">
         <v>12887697.3</v>
       </c>
-      <c r="O19" s="5" t="inlineStr">
+      <c r="P19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="P19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="Q19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>November 5, 2024</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>November 5, 2024</t>
         </is>
       </c>
-      <c r="S19" s="5" t="inlineStr">
+      <c r="T19" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-006</t>
         </is>
       </c>
-      <c r="T19" s="5" t="inlineStr">
+      <c r="U19" s="5" t="inlineStr">
         <is>
           <t>2024-07-007</t>
         </is>
       </c>
-      <c r="U19" s="5" t="inlineStr">
+      <c r="V19" s="5" t="inlineStr">
         <is>
           <t>April 17, 2024</t>
         </is>
       </c>
-      <c r="V19" s="5" t="inlineStr">
+      <c r="W19" s="5" t="inlineStr">
         <is>
           <t>April 24, 2024</t>
         </is>
       </c>
-      <c r="W19" s="5" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>May 7, 2024</t>
         </is>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>May 16, 2024</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="inlineStr">
+      <c r="Z19" s="5" t="inlineStr">
         <is>
           <t>July 8, 2024</t>
         </is>
       </c>
-      <c r="Z19" s="5" t="inlineStr">
+      <c r="AA19" s="5" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA19" s="5" t="inlineStr"/>
-      <c r="AB19" s="6" t="n"/>
+      <c r="AB19" s="5" t="inlineStr"/>
+      <c r="AC19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Abra</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>135223</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>San Juan CS</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>SAN JUAN</t>
         </is>
       </c>
-      <c r="G20" s="5" t="inlineStr">
+      <c r="H20" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>25000000</v>
       </c>
-      <c r="M20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="n">
         <v>24988913.87</v>
       </c>
-      <c r="O20" s="5" t="inlineStr">
+      <c r="P20" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="Q20" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>February 3, 2025</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr"/>
-      <c r="S20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr">
         <is>
           <t>CAR-ABRA-2024-04-006</t>
         </is>
       </c>
-      <c r="T20" s="5" t="inlineStr">
+      <c r="U20" s="5" t="inlineStr">
         <is>
           <t>2024-07-007</t>
         </is>
       </c>
-      <c r="U20" s="5" t="inlineStr">
+      <c r="V20" s="5" t="inlineStr">
         <is>
           <t>April 17, 2024</t>
         </is>
       </c>
-      <c r="V20" s="5" t="inlineStr">
+      <c r="W20" s="5" t="inlineStr">
         <is>
           <t>April 24, 2024</t>
         </is>
       </c>
-      <c r="W20" s="5" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>May 7, 2024</t>
         </is>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>May 16, 2024</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="inlineStr">
+      <c r="Z20" s="5" t="inlineStr">
         <is>
           <t>July 8, 2024</t>
         </is>
       </c>
-      <c r="Z20" s="5" t="inlineStr">
+      <c r="AA20" s="5" t="inlineStr">
         <is>
           <t>BAJE CONSTRUCTIOIN</t>
         </is>
       </c>
-      <c r="AA20" s="5" t="inlineStr"/>
-      <c r="AB20" s="6" t="n"/>
+      <c r="AB20" s="5" t="inlineStr"/>
+      <c r="AC20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>209</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>135438</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Daklan ES</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>BOKOD</t>
         </is>
       </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="H21" s="5" t="inlineStr">
         <is>
           <t>Lone</t>
         </is>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="J21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>19094390</v>
       </c>
-      <c r="M21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5" t="n">
         <v>18378750</v>
       </c>
-      <c r="O21" s="5" t="inlineStr">
+      <c r="P21" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="Q21" s="5" t="n">
         <v>0.45</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>August 5,2025</t>
         </is>
       </c>
-      <c r="R21" s="5" t="inlineStr"/>
-      <c r="S21" s="5" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr">
         <is>
           <t>GAB-2024-02</t>
         </is>
       </c>
-      <c r="T21" s="5" t="inlineStr">
+      <c r="U21" s="5" t="inlineStr">
         <is>
           <t>GAB-2024-02</t>
         </is>
       </c>
-      <c r="U21" s="5" t="inlineStr">
+      <c r="V21" s="5" t="inlineStr">
         <is>
           <t>MAY 29. 2024</t>
         </is>
       </c>
-      <c r="V21" s="7" t="n">
+      <c r="W21" s="7" t="n">
         <v>45571</v>
       </c>
-      <c r="W21" s="5" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="X21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>September 26, 2024</t>
         </is>
       </c>
-      <c r="Y21" s="5" t="inlineStr">
+      <c r="Z21" s="5" t="inlineStr">
         <is>
           <t>October 31, 2024</t>
         </is>
       </c>
-      <c r="Z21" s="5" t="inlineStr">
+      <c r="AA21" s="5" t="inlineStr">
         <is>
           <t>MHIGS CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA21" s="5" t="inlineStr"/>
-      <c r="AB21" s="6" t="n"/>
+      <c r="AB21" s="5" t="inlineStr"/>
+      <c r="AC21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>210</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Benguet</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>135619</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Bekkel ES</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>LA TRINIDAD (Capital)</t>
         </is>
       </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="H22" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>23919100</v>
       </c>
-      <c r="M22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5" t="n">
         <v>22932793.89</v>
       </c>
-      <c r="O22" s="5" t="inlineStr">
+      <c r="P22" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="Q22" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>August 5,2025</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr"/>
-      <c r="S22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr"/>
+      <c r="T22" s="5" t="inlineStr">
         <is>
           <t>GAB-2024-01</t>
         </is>
       </c>
-      <c r="T22" s="5" t="inlineStr">
+      <c r="U22" s="5" t="inlineStr">
         <is>
           <t>GAB-2024-01</t>
         </is>
       </c>
-      <c r="U22" s="5" t="inlineStr">
+      <c r="V22" s="5" t="inlineStr">
         <is>
           <t>MAY 29. 2024</t>
         </is>
       </c>
-      <c r="V22" s="7" t="n">
+      <c r="W22" s="7" t="n">
         <v>45571</v>
       </c>
-      <c r="W22" s="5" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>6/24/2024</t>
         </is>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>September 26, 2024</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="inlineStr">
+      <c r="Z22" s="5" t="inlineStr">
         <is>
           <t>October 31, 2024</t>
         </is>
       </c>
-      <c r="Z22" s="5" t="inlineStr">
+      <c r="AA22" s="5" t="inlineStr">
         <is>
           <t>JRF ANGOYNA GENERAL CONSTRUCTION/REKO KONSTRUCT-JV</t>
         </is>
       </c>
-      <c r="AA22" s="5" t="inlineStr"/>
-      <c r="AB22" s="6" t="n"/>
+      <c r="AB22" s="5" t="inlineStr"/>
+      <c r="AC22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>211</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>GABALDON 2024</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Ifugao</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>220020</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Ifugao SPED Center</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>LAGAWE (Capital)</t>
         </is>
       </c>
-      <c r="G23" s="5" t="inlineStr">
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
         <is>
           <t>Conservation and Restoration of Gabaldon School Building</t>
         </is>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>34222823.15</v>
       </c>
-      <c r="M23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5" t="inlineStr"/>
+      <c r="P23" s="5" t="inlineStr">
         <is>
           <t>Not Yet Started</t>
         </is>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="Q23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" s="5" t="inlineStr"/>
       <c r="R23" s="5" t="inlineStr"/>
       <c r="S23" s="5" t="inlineStr"/>
       <c r="T23" s="5" t="inlineStr"/>
@@ -2572,16 +2643,17 @@
       <c r="X23" s="5" t="inlineStr"/>
       <c r="Y23" s="5" t="inlineStr"/>
       <c r="Z23" s="5" t="inlineStr"/>
-      <c r="AA23" s="5" t="inlineStr">
+      <c r="AA23" s="5" t="inlineStr"/>
+      <c r="AB23" s="5" t="inlineStr">
         <is>
           <t>Ongoing Preparation of Plans, POW and CMP</t>
         </is>
       </c>
-      <c r="AB23" s="6" t="n"/>
+      <c r="AC23" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AB2:AB23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AC2:AC23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
